--- a/data/vlsp2016/eda/test/column-1-analyze.xlsx
+++ b/data/vlsp2016/eda/test/column-1-analyze.xlsx
@@ -53,13 +53,13 @@
     <t>FW</t>
   </si>
   <si>
-    <t>két, golf, Merdeka, gas, bar, fee, judo, tivi, bêtông, ôtô</t>
+    <t>két, golf, Merdeka, gas, bar, fee, judo, bêtông, tivi, ôtô</t>
   </si>
   <si>
     <t>I</t>
   </si>
   <si>
-    <t>ạ, ơi, Ôi, Thôi, à, nha, Trời ơi, Ối, giời, À</t>
+    <t>ạ, ơi, Ôi, Thôi, à, Ối, Trời ơi, nha, nhỉ, hỡi</t>
   </si>
   <si>
     <t>L</t>
@@ -89,7 +89,7 @@
     <t>Np</t>
   </si>
   <si>
-    <t>Văn, VN, Mai, Nguyễn, Hoà, Trần, Sài Gòn, Nhật, Minh, Tiết</t>
+    <t>Văn, VN, Mai, Nguyễn, Hoà, Trần, Sài Gòn, Nhật, Tiết, Minh</t>
   </si>
   <si>
     <t>Nu</t>
@@ -101,7 +101,7 @@
     <t>Ny</t>
   </si>
   <si>
-    <t>HCV, HLV, TP., UBND, VĐV, Q., NV, P., THCS, CLB</t>
+    <t>HCV, HLV, TP., UBND, VĐV, Q., NV, P., TP, CLB</t>
   </si>
   <si>
     <t>P</t>
@@ -119,7 +119,7 @@
     <t>T</t>
   </si>
   <si>
-    <t>cả, thôi, chính, đấy, mà, tận, cái, trời, ngay, Chính</t>
+    <t>cả, thôi, chính, đấy, mà, tận, cái, ngay, Chính, trời</t>
   </si>
   <si>
     <t>V</t>
@@ -137,13 +137,13 @@
     <t>X</t>
   </si>
   <si>
-    <t>như thế, như vậy, nhất là, làm sao, có lẽ, làm gì, có vẻ, thất thập cổ lai hi, hầu hết, Vậy mà</t>
+    <t>như thế, như vậy, nhất là, làm sao, có lẽ, làm gì, Vậy mà, hầu hết, Vì vậy, Thật ra</t>
   </si>
   <si>
     <t>Z</t>
   </si>
   <si>
-    <t>bất, siêu, phi, bán, phó, đại, gia, liên</t>
+    <t>bất, phi, siêu, gia, đại, liên, bán, phó</t>
   </si>
 </sst>
 </file>
